--- a/excel/AI Agents for Software Development and Automation.xlsx
+++ b/excel/AI Agents for Software Development and Automation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49afe6381fd2a7e4/Desktop/DigeonTech/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{683F8760-2708-4C8C-BE91-7D34245DA6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD0D968-B2F6-4911-8D56-E7EAC2FA050A}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{683F8760-2708-4C8C-BE91-7D34245DA6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93CBF4CE-08D1-4541-886D-2256C5E3B0AC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1396B597-BFAC-4C53-9BD6-2E352F3CA842}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{1396B597-BFAC-4C53-9BD6-2E352F3CA842}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>AI Agents for Software Development and Automation</t>
   </si>
@@ -77,9 +77,6 @@
     <t>AI code suggestions and security scanning for AWS services</t>
   </si>
   <si>
-    <t>AWS CodeWhisperer</t>
-  </si>
-  <si>
     <t>Cody by Sourcegraph</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t>Free (Open Source)</t>
-  </si>
-  <si>
-    <t>Sourcegraph Cody</t>
   </si>
   <si>
     <t>Codeium</t>
@@ -181,9 +175,6 @@
     <t>Open-source</t>
   </si>
   <si>
-    <t>GitHub</t>
-  </si>
-  <si>
     <t>Anysphere Cursor</t>
   </si>
   <si>
@@ -193,9 +184,6 @@
     <t>Beta / Paid</t>
   </si>
   <si>
-    <t>Cursor.so</t>
-  </si>
-  <si>
     <t>OpenInterpreter</t>
   </si>
   <si>
@@ -211,27 +199,18 @@
     <t>AI agent framework for executing multi-step software tasks</t>
   </si>
   <si>
-    <t>Microsoft Research</t>
-  </si>
-  <si>
     <t>ChatDev</t>
   </si>
   <si>
     <t>Autonomous AI software dev team for generating apps and code</t>
   </si>
   <si>
-    <t>GitHub - OpenBMB/ChatDev: Create Customized Software using Natural Language Idea (through LLM-powered Multi-Agent Collaboration)</t>
-  </si>
-  <si>
     <t>Caktus AI Code Assistant</t>
   </si>
   <si>
     <t>Web-based AI coding tool</t>
   </si>
   <si>
-    <t>Caktus AI</t>
-  </si>
-  <si>
     <t>GPTCode UI</t>
   </si>
   <si>
@@ -253,14 +232,62 @@
     <t>AI-powered developer productivity and automation assistant</t>
   </si>
   <si>
-    <t>Raycast</t>
+    <t>https://github.com/features/copilot</t>
+  </si>
+  <si>
+    <t>https://www.tabnine.com/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/q/developer/</t>
+  </si>
+  <si>
+    <t>https://sourcegraph.com/cody</t>
+  </si>
+  <si>
+    <t>https://windsurf.com/</t>
+  </si>
+  <si>
+    <t>https://mutable.ai/</t>
+  </si>
+  <si>
+    <t>https://safurai.com/</t>
+  </si>
+  <si>
+    <t>https://replit.com/ai</t>
+  </si>
+  <si>
+    <t>https://www.askcodi.com/</t>
+  </si>
+  <si>
+    <t>https://www.qodo.ai/</t>
+  </si>
+  <si>
+    <t>https://github.com/Significant-Gravitas/AutoGPT</t>
+  </si>
+  <si>
+    <t>https://cursor.com/en</t>
+  </si>
+  <si>
+    <t>https://taskmatrix.ai/lander</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenBMB/ChatDev</t>
+  </si>
+  <si>
+    <t>https://github.com/ali-ce/gptcode-ui</t>
+  </si>
+  <si>
+    <t>https://athenian.com/</t>
+  </si>
+  <si>
+    <t>https://www.raycast.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,14 +334,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -353,9 +372,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -377,9 +393,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -417,7 +433,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -523,7 +539,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -665,7 +681,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -675,24 +691,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513B5452-3CF1-4154-928B-F3394D0A089E}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -706,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.1">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -717,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29.1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -731,10 +747,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29.1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -745,267 +761,267 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.5">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="29.1">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29.1">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.5">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="29.1">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.5">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="29.1">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="29.1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="29.1">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="29.1">
-      <c r="A15" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.5">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.5">
-      <c r="A17" s="5" t="s">
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="43.5">
-      <c r="A18" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="29.1">
-      <c r="A19" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29.1">
-      <c r="A20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.5">
-      <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="43.5">
-      <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://github.com/features/copilot" xr:uid="{BA438149-F637-41D2-A91C-0899AB434446}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://www.tabnine.com/" xr:uid="{58C06371-93ED-414A-AC13-9B8B6319AE71}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{BA438149-F637-41D2-A91C-0899AB434446}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{58C06371-93ED-414A-AC13-9B8B6319AE71}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{03584D6A-72E3-48A7-B569-9F70A50909D3}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://sourcegraph.com/cody" xr:uid="{75EF7FA6-31B8-4AAF-954D-AF06E201BA0F}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://codeium.com/" xr:uid="{927FCE94-037D-4255-9DD4-901AAC679BB1}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://mutable.ai/" xr:uid="{5CB5E24D-D152-494F-9C99-21E7F0BB1084}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://www.safurai.com/" xr:uid="{7DBE7A66-7D9C-4168-BBA7-1005A0D88DC8}"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://replit.com/site/ghostwriter" xr:uid="{E1B1B948-7C7E-4099-BD79-2CA80E68D371}"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://www.askcodi.com/" xr:uid="{BC3F929B-3AB2-48F3-AF03-0645B5D8B82E}"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://www.codium.ai/" xr:uid="{CE0C0F0D-47BE-46AF-8BF1-051C8672D073}"/>
-    <hyperlink ref="D14" r:id="rId11" display="https://github.com/Torantulino/Auto-GPT" xr:uid="{E5B5554A-24FF-4E96-8DDB-6D10B37BBC3B}"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://www.cursor.so/" xr:uid="{B33A05AF-F69D-467B-95E8-5ED5AB4C08E1}"/>
-    <hyperlink ref="D17" r:id="rId13" display="https://taskmatrix.ai/" xr:uid="{6CCEA0E2-A823-4BE4-83EA-C0832A72CFF3}"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://caktus.ai/" xr:uid="{8A86B2E0-2E51-4685-A58F-06A978EB04D1}"/>
-    <hyperlink ref="D20" r:id="rId15" display="https://github.com/ali-ce/gptcode-ui" xr:uid="{AE5F41DE-BD80-4B02-8EB1-FC5D30CE2439}"/>
-    <hyperlink ref="D21" r:id="rId16" display="https://athenian.co/" xr:uid="{72432184-5448-4370-9B68-7661197D3453}"/>
-    <hyperlink ref="D22" r:id="rId17" display="https://raycast.com/" xr:uid="{135A25D5-60E4-4421-B771-939819FBDB5B}"/>
-    <hyperlink ref="D18" r:id="rId18" display="https://github.com/OpenBMB/ChatDev" xr:uid="{598EC046-4B1B-4DF8-A14A-5C1F0634D8A3}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{75EF7FA6-31B8-4AAF-954D-AF06E201BA0F}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{927FCE94-037D-4255-9DD4-901AAC679BB1}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{5CB5E24D-D152-494F-9C99-21E7F0BB1084}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{7DBE7A66-7D9C-4168-BBA7-1005A0D88DC8}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{E1B1B948-7C7E-4099-BD79-2CA80E68D371}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{BC3F929B-3AB2-48F3-AF03-0645B5D8B82E}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{CE0C0F0D-47BE-46AF-8BF1-051C8672D073}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{E5B5554A-24FF-4E96-8DDB-6D10B37BBC3B}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{B33A05AF-F69D-467B-95E8-5ED5AB4C08E1}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{6CCEA0E2-A823-4BE4-83EA-C0832A72CFF3}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{8A86B2E0-2E51-4685-A58F-06A978EB04D1}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{AE5F41DE-BD80-4B02-8EB1-FC5D30CE2439}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{72432184-5448-4370-9B68-7661197D3453}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{135A25D5-60E4-4421-B771-939819FBDB5B}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{598EC046-4B1B-4DF8-A14A-5C1F0634D8A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
